--- a/static/downloads/23 Bưu điện Tỉnh Bắc Giang.xlsx
+++ b/static/downloads/23 Bưu điện Tỉnh Bắc Giang.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,10 +436,154 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>236370_huyendt</t>
+          <t>230000_hangtt</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>23_Bưu điện Tỉnh Bắc Giang</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>230000_hangtt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>23_Bưu điện Tỉnh Bắc Giang</t>
         </is>
